--- a/_static/global/profiles.xlsx
+++ b/_static/global/profiles.xlsx
@@ -16144,7 +16144,7 @@
       </c>
       <c r="Y153" t="inlineStr">
         <is>
-          <t>Wer sind Sie?  Auf Basis Ihrer Antworten auf die nachfolgenden Fragen generieren wir ein für Sie individuelles Profil inklusive einem AI generiertem Bild. Ihre Daten werden anonymisiert und vertraulich behandelt.    Bitte beschreiben Sie sich in 2-3 Sätzen. Gehen Sie dabei z.B. auf Ihre Hobbies, Interessen, Familie, etc. ein.  Bitte beschreiben Sie Ihr Aussehen in 2-3 Sätzen. Gehen Sie dabei z.B. auf Ihre Haarfarbe, Augenfarbe, Größe, Brille(?), etc. ein.  Meine Hobbys sind Wandern, Schwimmen und allgemeines Lesen von Romanen.</t>
+          <t>Meine Hobbys sind Wandern, Schwimmen und allgemeines Lesen von Romanen.</t>
         </is>
       </c>
     </row>
